--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>El Peñón Manquehue SpA</t>
+          <t>El Peñon Manquehue SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/07/2022</t>
+          <t>03/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/08/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rentas y Desarrollo Aconcagua SA</t>
+          <t>Rentas y Desarrollo Aconcagua SA..</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>35241</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>COMPAÑIA DE SEGUROS DE VIDA CONSORCIO NACIONAL DE SEGUROS S.A.</t>
+          <t>El Peñón SpA.</t>
         </is>
       </c>
       <c r="F239" t="n">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>02/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CMPC TISSUE S.A</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>CMPC Tissue S.A.</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Modificación y Modernización de la Planta de Procesamiento de Áridos Bajos de Mena, Sociedad Minera El Rosario (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
+          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Monte Aconcagua S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Proyecto Estación de Servicio ESSO ubicada en Avenida Camilo Henríquez Nº 3674 comuna de Puente Alto</t>
+          <t>Conjunto Habitacional Nuevos Faldeos de la Viña</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Inmobiliaria Monte Aconcagua S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Puente Alto.xlsx
+++ b/data/Puente Alto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
